--- a/MINE__#DSASheetbyArsh (45-60 Days).xlsx
+++ b/MINE__#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1469,8 +1469,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1588,6 +1588,9 @@
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="D10" t="s">
+        <v>322</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
@@ -1599,6 +1602,9 @@
       <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="H11" s="10" t="s">
         <v>13</v>
@@ -1611,6 +1617,9 @@
       <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="12.75">
       <c r="B13" s="8" t="s">
@@ -1619,6 +1628,9 @@
       <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="12.75">
       <c r="B14" s="8" t="s">
@@ -1627,6 +1639,9 @@
       <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
@@ -1638,6 +1653,9 @@
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="12.75">
       <c r="B16" s="8" t="s">
@@ -1646,6 +1664,9 @@
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
       <c r="I16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1656,6 +1677,9 @@
       </c>
       <c r="C17" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>322</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>13</v>

--- a/MINE__#DSASheetbyArsh (45-60 Days).xlsx
+++ b/MINE__#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1469,8 +1469,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1692,6 +1692,9 @@
       <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
@@ -1704,6 +1707,9 @@
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
@@ -1715,6 +1721,9 @@
       <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="D20" t="s">
+        <v>322</v>
+      </c>
       <c r="F20" s="10" t="s">
         <v>13</v>
       </c>
@@ -1726,6 +1735,9 @@
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
       <c r="I21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1737,6 +1749,9 @@
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="12.75">
       <c r="B23" s="8" t="s">
@@ -1745,6 +1760,9 @@
       <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="12.75">
       <c r="B24" s="8" t="s">
@@ -1753,6 +1771,9 @@
       <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="12.75">
       <c r="B25" s="8" t="s">
@@ -1761,6 +1782,9 @@
       <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D25" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="12.75">
       <c r="B26" s="8" t="s">
@@ -1768,6 +1792,9 @@
       </c>
       <c r="C26" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="12.75">
